--- a/WSC/Test Cases/Infrastructure/WSC Infrastructure Management & Maintenance_Masters Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Infrastructure Management & Maintenance_Masters Test Cases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="360">
   <si>
     <t>Contents</t>
   </si>
@@ -116,9 +116,14 @@
   </si>
   <si>
     <t>Credential for Infrastructure super admin:
-URL: https://soulwsc.eduleadonline.com/app/infrastructure
-User ID: Administrator
-Password: admin</t>
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com     erp@123
+building.admin@mail.com                         erp@123
+floor.supervisor@mail.com                       erp@123
+maintenance.dept@gmail.com                 erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -563,6 +568,17 @@
   </si>
   <si>
     <t>Test Infrastructure Masters Module</t>
+  </si>
+  <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com     erp@123
+building.admin@mail.com                          erp@123
+floor.supervisor@mail.com                        erp@123
+maintenance.dept@gmail.com                  erp@123</t>
   </si>
   <si>
     <t>Verify the Building type Room module.</t>
@@ -901,6 +917,17 @@
   </si>
   <si>
     <t>Test Infrastructure_Floor</t>
+  </si>
+  <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com     erp@123
+building.admin@mail.com                           erp@123
+floor.supervisor@mail.com                         erp@123
+maintenance.dept@gmail.com                   erp@123</t>
   </si>
   <si>
     <t>Verify the Infrastructure module_Floor</t>
@@ -3027,8 +3054,8 @@
   <sheetPr/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3141,7 +3168,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -3656,8 +3683,8 @@
   <sheetPr/>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A45" sqref="$A45:$XFD48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3768,7 +3795,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
@@ -4395,8 +4422,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4495,10 +4522,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="58" spans="1:8">
+    <row r="7" ht="130.5" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4521,7 +4548,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4577,7 +4604,7 @@
     <row r="13" s="8" customFormat="1" ht="29" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -4591,11 +4618,11 @@
         <v>34</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="44"/>
@@ -4621,11 +4648,11 @@
         <v>40</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="44"/>
@@ -4637,11 +4664,11 @@
         <v>42</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="44"/>
@@ -4653,11 +4680,11 @@
         <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="44"/>
@@ -4669,11 +4696,11 @@
         <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -4685,11 +4712,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
@@ -4713,11 +4740,11 @@
         <v>57</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
@@ -4795,8 +4822,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="$A37:$XFD40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4814,14 +4841,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
@@ -4892,12 +4919,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="58" spans="1:8">
+    <row r="7" ht="130.5" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>24</v>
@@ -4923,7 +4950,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4979,13 +5006,13 @@
     <row r="13" s="8" customFormat="1" ht="29" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="22"/>
@@ -4995,15 +5022,15 @@
         <v>34</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="10"/>
@@ -5019,7 +5046,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="42"/>
       <c r="F15" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="10"/>
@@ -5029,15 +5056,15 @@
         <v>40</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="10"/>
@@ -5047,7 +5074,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
@@ -5055,7 +5082,7 @@
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="10"/>
@@ -5073,7 +5100,7 @@
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="10"/>
@@ -5083,13 +5110,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="42"/>
       <c r="F19" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="10"/>
@@ -5099,11 +5126,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E20" s="42"/>
       <c r="F20" s="44"/>
@@ -5115,7 +5142,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
@@ -5131,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
@@ -5139,7 +5166,7 @@
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="10"/>
@@ -5149,17 +5176,17 @@
         <v>54</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="10"/>
@@ -5169,7 +5196,7 @@
         <v>57</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="47" t="s">
@@ -5177,7 +5204,7 @@
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="44"/>
       <c r="H24" s="10"/>
@@ -5187,7 +5214,7 @@
         <v>60</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="47" t="s">
@@ -5195,7 +5222,7 @@
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="10"/>
@@ -5213,7 +5240,7 @@
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="42"/>
@@ -5231,7 +5258,7 @@
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:8">
@@ -5289,13 +5316,13 @@
       <c r="B32" s="10"/>
       <c r="C32" s="51"/>
       <c r="D32" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G32" s="61"/>
       <c r="H32" s="50"/>
@@ -5305,17 +5332,17 @@
         <v>69</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="10"/>
@@ -5325,11 +5352,11 @@
         <v>72</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="44"/>
@@ -5341,11 +5368,11 @@
         <v>75</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="44"/>
@@ -5423,8 +5450,8 @@
   <sheetPr/>
   <dimension ref="A9:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD46"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -5439,14 +5466,14 @@
         <v>11</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -5517,15 +5544,15 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" ht="58" spans="1:8">
+    <row r="15" ht="130.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5548,7 +5575,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -5604,7 +5631,7 @@
     <row r="21" s="8" customFormat="1" ht="29" spans="1:8">
       <c r="A21" s="21"/>
       <c r="B21" s="40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5618,11 +5645,11 @@
         <v>34</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="43"/>
@@ -5634,7 +5661,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -5648,11 +5675,11 @@
         <v>40</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="41"/>
@@ -5664,11 +5691,11 @@
         <v>42</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="41"/>
@@ -5687,7 +5714,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="44"/>
@@ -5698,7 +5725,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -5712,11 +5739,11 @@
         <v>51</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="44"/>
@@ -5728,7 +5755,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
@@ -5744,7 +5771,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
@@ -5760,11 +5787,11 @@
         <v>54</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="44"/>
@@ -5776,7 +5803,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="47" t="s">
@@ -5792,7 +5819,7 @@
         <v>60</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" s="48"/>
       <c r="D33" s="47" t="s">
@@ -5871,13 +5898,13 @@
       <c r="B38" s="10"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="50"/>
@@ -5887,17 +5914,17 @@
         <v>78</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -5907,11 +5934,11 @@
         <v>81</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5923,11 +5950,11 @@
         <v>84</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6023,14 +6050,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6081,12 +6108,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C5" s="10"/>
       <c r="E5" s="16"/>
       <c r="F5" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -6115,7 +6142,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -6174,7 +6201,7 @@
     <row r="13" s="8" customFormat="1" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="19"/>
@@ -6187,11 +6214,11 @@
         <v>34</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -6202,11 +6229,11 @@
         <v>37</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6217,11 +6244,11 @@
         <v>40</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6241,7 +6268,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="19"/>
@@ -6254,11 +6281,11 @@
         <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6269,11 +6296,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -6284,11 +6311,11 @@
         <v>54</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6299,11 +6326,11 @@
         <v>57</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -6312,7 +6339,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="16"/>
       <c r="B23" s="20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="16"/>
@@ -6325,11 +6352,11 @@
         <v>60</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -6338,7 +6365,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="16"/>
@@ -6351,11 +6378,11 @@
         <v>63</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -6366,11 +6393,11 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -6381,11 +6408,11 @@
         <v>69</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -6396,7 +6423,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="16"/>
@@ -6409,7 +6436,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="16"/>
@@ -6420,7 +6447,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="22"/>
       <c r="B31" s="27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="16"/>
@@ -6433,11 +6460,11 @@
         <v>78</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -6448,11 +6475,11 @@
         <v>81</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -6463,11 +6490,11 @@
         <v>84</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -6478,11 +6505,11 @@
         <v>87</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6493,11 +6520,11 @@
         <v>90</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -6508,11 +6535,11 @@
         <v>93</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -6523,11 +6550,11 @@
         <v>96</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6538,11 +6565,11 @@
         <v>99</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6553,11 +6580,11 @@
         <v>131</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6568,11 +6595,11 @@
         <v>132</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6583,11 +6610,11 @@
         <v>133</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6598,11 +6625,11 @@
         <v>136</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6613,11 +6640,11 @@
         <v>137</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6628,11 +6655,11 @@
         <v>138</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6643,11 +6670,11 @@
         <v>141</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6655,10 +6682,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="16"/>
@@ -6668,14 +6695,14 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6683,10 +6710,10 @@
     </row>
     <row r="49" ht="29" spans="1:7">
       <c r="A49" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="16"/>
@@ -6696,14 +6723,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6711,10 +6738,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="16"/>
@@ -6724,10 +6751,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="16"/>
@@ -6737,10 +6764,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="16"/>
@@ -6750,10 +6777,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="16"/>
@@ -6773,7 +6800,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="B56" s="27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="16"/>
@@ -6783,14 +6810,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6808,7 +6835,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="B59" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="16"/>
@@ -6818,14 +6845,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -6833,14 +6860,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -6848,14 +6875,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -6863,31 +6890,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -6895,14 +6922,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -6910,14 +6937,14 @@
     </row>
     <row r="66" ht="43.5" spans="1:7">
       <c r="A66" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -6925,14 +6952,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -6940,14 +6967,14 @@
     </row>
     <row r="68" ht="159.5" spans="1:7">
       <c r="A68" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -6955,14 +6982,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -6970,14 +6997,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -6985,14 +7012,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -7000,14 +7027,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="16"/>
@@ -7015,14 +7042,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="16"/>
@@ -7030,14 +7057,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="16"/>
@@ -7045,14 +7072,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="16"/>
@@ -7060,14 +7087,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
@@ -7075,14 +7102,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -7091,7 +7118,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="10"/>
       <c r="B78" s="29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -7101,14 +7128,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="10"/>
@@ -7116,14 +7143,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="10"/>
@@ -7131,14 +7158,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7222,22 +7249,22 @@
     </row>
     <row r="21" ht="16" spans="3:3">
       <c r="C21" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" ht="16" spans="3:3">
       <c r="C22" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" ht="16" spans="3:3">
       <c r="C23" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" ht="16" spans="3:3">
       <c r="C24" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" ht="16" spans="3:3">

--- a/WSC/Test Cases/Infrastructure/WSC Infrastructure Management & Maintenance_Masters Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Infrastructure Management & Maintenance_Masters Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="437">
   <si>
     <t>Contents</t>
   </si>
@@ -97,6 +97,12 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Asit Mohanty</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -109,21 +115,16 @@
     <t xml:space="preserve">User should be able to login to WSC </t>
   </si>
   <si>
-    <t>User Id:-Administrator,Pwd:-wsc@123</t>
+    <t>User Id:-Administrator,Pwd:-admin</t>
   </si>
   <si>
     <t>Different user credentials should be used :- SLCM Admin,Tainer,Student</t>
   </si>
   <si>
     <t>Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-project.manager@soulunileaders.com     erp@123
-building.admin@mail.com                         erp@123
-floor.supervisor@mail.com                       erp@123
-maintenance.dept@gmail.com                 erp@123</t>
+URL: https://wscdemo.eduleadonline.com//app/infrastructure
+User ID: Administrator
+Password: admin</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -154,6 +155,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">building.admin@mail.com </t>
+  </si>
+  <si>
     <t>Step 1</t>
   </si>
   <si>
@@ -163,6 +167,12 @@
     <t>Land page opens up.</t>
   </si>
   <si>
+    <t>Land page is opening .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS </t>
+  </si>
+  <si>
     <t>Step 2</t>
   </si>
   <si>
@@ -170,6 +180,9 @@
   </si>
   <si>
     <t>New Land Page opens up.</t>
+  </si>
+  <si>
+    <t>New land page is opening</t>
   </si>
   <si>
     <t>Step 3</t>
@@ -190,6 +203,12 @@
     <t>The Land details will be saved successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">Phone number is accepting more than 10  digit and less than 10 digit </t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>Step 5</t>
   </si>
   <si>
@@ -199,6 +218,9 @@
     <t>The error message must be shown.</t>
   </si>
   <si>
+    <t xml:space="preserve">error message is displaying </t>
+  </si>
+  <si>
     <t>Step 6</t>
   </si>
   <si>
@@ -206,6 +228,9 @@
   </si>
   <si>
     <t>There is a "Lease" text box appears with "Attach" where user need to attach the lease document.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Attach" is diaplying </t>
   </si>
   <si>
     <t>Step 7</t>
@@ -221,6 +246,9 @@
 -Camera</t>
   </si>
   <si>
+    <t xml:space="preserve">My Device,Library,Link,Camera is displaying </t>
+  </si>
+  <si>
     <t>Step 8</t>
   </si>
   <si>
@@ -230,6 +258,9 @@
     <t>The My Device will open up and User can attach with a document from my computer.</t>
   </si>
   <si>
+    <t>User is attaching .</t>
+  </si>
+  <si>
     <t>Step 9</t>
   </si>
   <si>
@@ -239,6 +270,9 @@
     <t>The document will be attached from Library.</t>
   </si>
   <si>
+    <t xml:space="preserve">Document is attached from library </t>
+  </si>
+  <si>
     <t>Step 10</t>
   </si>
   <si>
@@ -248,6 +282,9 @@
     <t>The document will be attached from Link being provided by User.</t>
   </si>
   <si>
+    <t>User is attaching from link</t>
+  </si>
+  <si>
     <t>Step 11</t>
   </si>
   <si>
@@ -257,6 +294,9 @@
     <t>The document will be attached from Camera being provided by User.</t>
   </si>
   <si>
+    <t>Camera is working as expected</t>
+  </si>
+  <si>
     <t>Step 12</t>
   </si>
   <si>
@@ -266,6 +306,9 @@
     <t>The Document will be uploaded .</t>
   </si>
   <si>
+    <t xml:space="preserve">Document is attached . </t>
+  </si>
+  <si>
     <t>Step 13</t>
   </si>
   <si>
@@ -275,6 +318,12 @@
     <t>There will be no Attach button to be attached.</t>
   </si>
   <si>
+    <t>There is no attach button</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Step 14</t>
   </si>
   <si>
@@ -284,6 +333,9 @@
     <t>A new Row will be added.</t>
   </si>
   <si>
+    <t xml:space="preserve">new Row is attached </t>
+  </si>
+  <si>
     <t>Step 15</t>
   </si>
   <si>
@@ -302,24 +354,33 @@
     <t>The row should be deleted successfully.</t>
   </si>
   <si>
+    <t>the row is deleted .</t>
+  </si>
+  <si>
     <t>Step 17</t>
   </si>
   <si>
-    <t>Put tick on the check box for multiple rows in the Result Declaration Student table.Click on Delete.</t>
+    <t>Put tick on the check box for multiple rows in the Land Documents  table.Click on Delete.</t>
   </si>
   <si>
     <t>The rows should be deleted successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiple rows is deleted </t>
+  </si>
+  <si>
     <t>Step 18</t>
   </si>
   <si>
-    <t>Click on Configure icon on the Columns in "Result Declaration Student" Table.</t>
+    <t>Click on Configure icon on the Columns in "Land Documnts " Table.</t>
   </si>
   <si>
     <t>The configure Column message box opens up.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cofigure box is opening </t>
+  </si>
+  <si>
     <t>Step 19</t>
   </si>
   <si>
@@ -329,6 +390,9 @@
     <t>The date will be saved.</t>
   </si>
   <si>
+    <t xml:space="preserve">Data is saved </t>
+  </si>
+  <si>
     <t>Step 20</t>
   </si>
   <si>
@@ -338,6 +402,9 @@
     <t>It will Reset to Default.</t>
   </si>
   <si>
+    <t xml:space="preserve">Colomn width Value is not set Deafult </t>
+  </si>
+  <si>
     <t>Step 21</t>
   </si>
   <si>
@@ -347,6 +414,9 @@
     <t>The message box is opened up.</t>
   </si>
   <si>
+    <t xml:space="preserve">Message box is opening </t>
+  </si>
+  <si>
     <t>Step 22</t>
   </si>
   <si>
@@ -354,6 +424,9 @@
   </si>
   <si>
     <t>The data is saved successfully.</t>
+  </si>
+  <si>
+    <t>Comment is saved</t>
   </si>
   <si>
     <t>Step 23</t>
@@ -397,6 +470,12 @@
     <t>Test Building Module</t>
   </si>
   <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://soulwsc.eduleadonline.com/app/infrastructure
+User ID: Administrator
+Password: admin</t>
+  </si>
+  <si>
     <t>Verify the Buildings module.</t>
   </si>
   <si>
@@ -411,11 +490,17 @@
     <t>Buildings Page should be displayed.</t>
   </si>
   <si>
+    <t xml:space="preserve">Building Page is displaying </t>
+  </si>
+  <si>
     <t>Check the " Buildings" page.</t>
   </si>
   <si>
     <t xml:space="preserve">Click on "+ ADD Buildings".
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New building is dispalying </t>
   </si>
   <si>
     <r>
@@ -477,14 +562,23 @@
     <t>New Building name is saved with details being entered.</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Room,Total Flor , Campus are taking Negetive Value </t>
+  </si>
+  <si>
     <t>Do not enter any of the below Mandatory fields.
 Building Name,Building Address,Post Office,District,State,Pin Code,Building Type,Total Rooms,Total Floors,Start date.</t>
   </si>
   <si>
+    <t>Error message is displaying</t>
+  </si>
+  <si>
     <t>Click on "Land Plot number" and click on "Create New Land".</t>
   </si>
   <si>
     <t>Enter New Land Owners details  in the link page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land owner Page is opening </t>
   </si>
   <si>
     <t>Enter the below options from Building Type.
@@ -497,28 +591,85 @@
     <t>The entered data must be saved successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">Residental is not diplaying </t>
+  </si>
+  <si>
     <t>Enter the option "Others" for Building Type.</t>
   </si>
   <si>
     <t>There will be a text box which needs to be eneterd "Building Type, if any other".</t>
   </si>
   <si>
+    <t xml:space="preserve">Text box is displaying </t>
+  </si>
+  <si>
     <t>Enter Start date greater than End date.</t>
   </si>
   <si>
     <t>The error message must be shown as "Start date cannot be greater than End date."</t>
   </si>
   <si>
+    <t xml:space="preserve">Attach is displaying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 options are displaying </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is uploading from My Device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document is uploading from libarary </t>
+  </si>
+  <si>
+    <t>Document is uploading from link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document is uploading from Camera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document is uplaoding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting No , there is no attach button </t>
+  </si>
+  <si>
     <t>Click on "Add Row" in the Building Documents Table.</t>
   </si>
   <si>
+    <t xml:space="preserve">Row Is added </t>
+  </si>
+  <si>
     <t>Put tick on the check box in the Building Documents Table.Click on Delete.</t>
   </si>
   <si>
+    <t xml:space="preserve">Row is Deleteing </t>
+  </si>
+  <si>
+    <t>Put tick on the check box for multiple rows in the Result Declaration Student table.Click on Delete.</t>
+  </si>
+  <si>
+    <t>All the rows are deleting .</t>
+  </si>
+  <si>
+    <t>Click on Configure icon on the Columns in "Building Documents " Table.</t>
+  </si>
+  <si>
+    <t>Column is opening</t>
+  </si>
+  <si>
+    <t>Data is saved.</t>
+  </si>
+  <si>
     <t>Step 24</t>
   </si>
   <si>
     <t>Step 25</t>
+  </si>
+  <si>
+    <t>Messsage box is openeing</t>
   </si>
   <si>
     <t>Step 26</t>
@@ -535,12 +686,18 @@
     <t>The data entered should be saved successfully.</t>
   </si>
   <si>
+    <t xml:space="preserve">Facing is showing as expected </t>
+  </si>
+  <si>
     <t>Step 27</t>
   </si>
   <si>
     <t>Step 28</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment is saved </t>
+  </si>
+  <si>
     <t>Step 29</t>
   </si>
   <si>
@@ -548,6 +705,9 @@
   </si>
   <si>
     <t>Click on Save / Dismiss if User wnat to Save or Dismiss the comment being entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save and dismiss is working as expected </t>
   </si>
   <si>
     <t>Step 30</t>
@@ -560,6 +720,9 @@
     <t>The Page should display the details of Buildings record.</t>
   </si>
   <si>
+    <t>Page is dispalying in building record</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -570,17 +733,6 @@
     <t>Test Infrastructure Masters Module</t>
   </si>
   <si>
-    <t>Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-project.manager@soulunileaders.com     erp@123
-building.admin@mail.com                          erp@123
-floor.supervisor@mail.com                        erp@123
-maintenance.dept@gmail.com                  erp@123</t>
-  </si>
-  <si>
     <t>Verify the Building type Room module.</t>
   </si>
   <si>
@@ -595,11 +747,17 @@
     <t>Continuous Evaluation Tool page opens.</t>
   </si>
   <si>
+    <t xml:space="preserve">Building type room is opening </t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on "+ ADD Building type Room".
 </t>
   </si>
   <si>
     <t>New Building type Room page opens.</t>
+  </si>
+  <si>
+    <t>new building type room  is opening</t>
   </si>
   <si>
     <r>
@@ -661,6 +819,9 @@
     <t>New Building Type name is saved and The page opens with new Building Type Name .</t>
   </si>
   <si>
+    <t xml:space="preserve">Allotment Status filed is not dispalying </t>
+  </si>
+  <si>
     <t>Do not enter any of the below Mandatory fields.
 -Type of room
 -Allotment Status (Not Allottable/Allottable)</t>
@@ -672,16 +833,28 @@
 Type of room</t>
   </si>
   <si>
+    <t>Dependency on previous step</t>
+  </si>
+  <si>
     <t>Add a comment in the Add a comment section and click on "Comment" button.Click on SAVE.</t>
   </si>
   <si>
     <t>The Comment is saved.</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment is working </t>
+  </si>
+  <si>
     <t xml:space="preserve">The data entered above are saved successfullly and on the page click on "SAVE" button. </t>
   </si>
   <si>
     <t>The data should be saved successfully.</t>
+  </si>
+  <si>
+    <t>Data is saved</t>
+  </si>
+  <si>
+    <t>Save and dismiss is working as expected</t>
   </si>
   <si>
     <t xml:space="preserve">Go to Home &gt; Infrastructure &gt; Masters &gt;  Building Type room,Check the list of records from Building Type Room .And click on one of the records.
@@ -691,6 +864,9 @@
     <t>The Page should display the details of Building Type Room record.</t>
   </si>
   <si>
+    <t xml:space="preserve">it is dispalying as expected </t>
+  </si>
+  <si>
     <t>TC4_ Cumulative Marksheet Tool</t>
   </si>
   <si>
@@ -707,14 +883,14 @@
 </t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Home &gt; Infrastructure &gt; Masters &gt;  Building-Room
 </t>
   </si>
   <si>
     <t xml:space="preserve"> Building-Room page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Building-Room page is displaying.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -723,6 +899,9 @@
   </si>
   <si>
     <t>New Building-Room page is displayed.</t>
+  </si>
+  <si>
+    <t>New Building-Room page is displaying.</t>
   </si>
   <si>
     <r>
@@ -825,37 +1004,67 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">new builing is displaying with data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message is dispalying </t>
+  </si>
+  <si>
     <t>Click on check box"Is Temporary".</t>
   </si>
   <si>
+    <t xml:space="preserve">Check box is Checked </t>
+  </si>
+  <si>
     <t>Click on check box "Is Scheduled".</t>
   </si>
   <si>
     <t>The "Seating Capacity","Room Name".</t>
   </si>
   <si>
+    <t xml:space="preserve">Working As expected </t>
+  </si>
+  <si>
     <t>Enter the  "Seating Capacity","Room Name".</t>
   </si>
   <si>
+    <t>Data is not saving</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Click on "Add Row" in the Room Assets Table.</t>
   </si>
   <si>
+    <t>New row is added</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on Edit Row.Enter "Item Code","Item Name","Location","Asset Name","Custodian","Department". </t>
   </si>
   <si>
     <t>The entered will be uploade to the table.</t>
   </si>
   <si>
+    <t xml:space="preserve">Item Code,"Item Name","Location","Asset Name","Custodian","Department". unable to Enter </t>
+  </si>
+  <si>
+    <t>Screen blocker unable to execute to next step</t>
+  </si>
+  <si>
+    <t>Put tick on the check box in the Room Assets Table.Click on Delete.</t>
+  </si>
+  <si>
+    <t>Put tick on the check box for multiple rows in the Room Assets table.Click on Delete.</t>
+  </si>
+  <si>
+    <t>Click on Configure icon on the Columns in "Result Declaration Student" Table.</t>
+  </si>
+  <si>
+    <t>The email is sent successfully.</t>
+  </si>
+  <si>
     <t>As expected.</t>
-  </si>
-  <si>
-    <t>Put tick on the check box in the Room Assets Table.Click on Delete.</t>
-  </si>
-  <si>
-    <t>Put tick on the check box for multiple rows in the Room Assets table.Click on Delete.</t>
-  </si>
-  <si>
-    <t>The email is sent successfully.</t>
   </si>
   <si>
     <t>In the new Exam page the description is shown.Add a comment in the Add a comment section and click on "Comment" button .</t>
@@ -919,17 +1128,6 @@
     <t>Test Infrastructure_Floor</t>
   </si>
   <si>
-    <t>Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-project.manager@soulunileaders.com     erp@123
-building.admin@mail.com                           erp@123
-floor.supervisor@mail.com                         erp@123
-maintenance.dept@gmail.com                   erp@123</t>
-  </si>
-  <si>
     <t>Verify the Infrastructure module_Floor</t>
   </si>
   <si>
@@ -937,10 +1135,13 @@
 </t>
   </si>
   <si>
-    <t>Click on Home &gt; Infrastructure &gt; Masters &gt;Floor</t>
+    <t>Click on Home &gt; Infrastructure  Masters &gt;Floor</t>
   </si>
   <si>
     <t>Floor page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor page is displaying </t>
   </si>
   <si>
     <t>Check the "Floor" page.</t>
@@ -952,6 +1153,9 @@
   </si>
   <si>
     <t>New Floor page is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Floor page is dispalying </t>
   </si>
   <si>
     <r>
@@ -1017,7 +1221,24 @@
     <t>New Floor page is saved with details being entered.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Floor number and number of rooms are taking Negetive Value</t>
+    </r>
+  </si>
+  <si>
     <t>There is nomadatory fields.</t>
+  </si>
+  <si>
+    <t>Check box is not Avaliable in this screen</t>
+  </si>
+  <si>
+    <t>Testing blocke d</t>
   </si>
   <si>
     <t xml:space="preserve">Generic </t>
@@ -1614,7 +1835,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,10 +1886,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333C44"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1682,14 +1939,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2294,135 +2543,135 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2490,16 +2739,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2509,20 +2773,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2533,7 +2801,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2541,12 +2809,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2558,6 +2854,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2573,16 +2873,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2653,7 +2961,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2686,8 +2994,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1219200" y="3708400"/>
-              <a:ext cx="609600" cy="203200"/>
+              <a:off x="1163320" y="3619500"/>
+              <a:ext cx="609600" cy="190500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2963,78 +3271,78 @@
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="24.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="20.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="43.3619047619048" customWidth="1"/>
+    <col min="3" max="3" width="24.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="23.0952380952381" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="15.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="14.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="20.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="14.6380952380952" customWidth="1"/>
+    <col min="10" max="10" width="15.7238095238095" customWidth="1"/>
+    <col min="11" max="11" width="14.4571428571429" customWidth="1"/>
+    <col min="12" max="12" width="20.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="102" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="75" customHeight="1" spans="2:12">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="78"/>
+      <c r="B6" s="101"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3052,48 +3360,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="133.272727272727" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="114.727272727273" customWidth="1"/>
-    <col min="5" max="5" width="45.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="65.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="124.714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="64.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="29.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="65.9047619047619" customWidth="1"/>
+    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" ht="14.5" customHeight="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
@@ -3102,9 +3411,13 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+    <row r="3" ht="14.5" customHeight="1" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -3112,7 +3425,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" ht="14.5" customHeight="1" spans="1:8">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3122,20 +3435,20 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" ht="14.5" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3145,13 +3458,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -3159,7 +3472,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3168,9 +3481,9 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3181,10 +3494,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3215,436 +3528,538 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" s="8" customFormat="1" ht="29" spans="1:7">
+      <c r="F12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="30" spans="1:7">
       <c r="A13" s="21"/>
-      <c r="B13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="21"/>
+      <c r="B13" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" ht="88" customHeight="1" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="94" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" ht="30" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" ht="28" customHeight="1" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" ht="30" spans="1:7">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:7">
       <c r="A28" s="10" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:7">
       <c r="A29" s="10" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:7">
       <c r="A30" s="10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:7">
       <c r="A31" s="10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:7">
       <c r="A32" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:7">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:7">
       <c r="A34" s="10" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="D34" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" customFormat="1" spans="1:7">
       <c r="A36" s="10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="42"/>
+      <c r="D36" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" s="32" customFormat="1" spans="1:7">
-      <c r="A37" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="90"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="71"/>
-    </row>
-    <row r="38" s="31" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" s="32" customFormat="1" spans="1:4">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" s="32" customFormat="1" spans="1:4">
-      <c r="A40" s="31"/>
-      <c r="B40" s="59" t="s">
-        <v>106</v>
+      <c r="G37" s="90"/>
+    </row>
+    <row r="38" s="32" customFormat="1" spans="1:7">
+      <c r="A38" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="90"/>
+    </row>
+    <row r="39" s="31" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A39" s="60"/>
+      <c r="B39" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" s="32" customFormat="1" ht="30" spans="1:4">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C40" s="31"/>
-      <c r="D40" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" s="32" customFormat="1" spans="1:4">
+      <c r="D40" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" s="32" customFormat="1" ht="30" spans="1:4">
       <c r="A41" s="31"/>
-      <c r="B41" s="59" t="s">
-        <v>108</v>
+      <c r="B41" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C41" s="31"/>
-      <c r="D41" s="57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" s="32" customFormat="1"/>
+      <c r="D41" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" s="32" customFormat="1" ht="30" spans="1:4">
+      <c r="A42" s="31"/>
+      <c r="B42" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="62" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="43" s="32" customFormat="1"/>
     <row r="44" s="32" customFormat="1"/>
     <row r="45" s="32" customFormat="1"/>
@@ -3667,11 +4082,15 @@
     <row r="62" s="32" customFormat="1"/>
     <row r="63" s="32" customFormat="1"/>
     <row r="64" s="32" customFormat="1"/>
+    <row r="65" s="32" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="B9:D9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" display="building.admin@mail.com "/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -3683,37 +4102,38 @@
   <sheetPr/>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="160.272727272727" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="91.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="45.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="65.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="79.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="67.4285714285714" style="33" customWidth="1"/>
+    <col min="5" max="5" width="38.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="28.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="34.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:8">
+    <row r="1" ht="30" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="E1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -3722,8 +4142,8 @@
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="10"/>
@@ -3735,7 +4155,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -3745,7 +4165,7 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -3753,18 +4173,18 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3774,10 +4194,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -3786,21 +4206,21 @@
     <row r="7" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3808,13 +4228,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -3824,7 +4244,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -3834,7 +4254,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3842,570 +4262,744 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" s="8" customFormat="1" ht="29" spans="1:7">
+      <c r="F12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="30" spans="1:7">
       <c r="A13" s="21"/>
-      <c r="B13" s="40" t="s">
-        <v>113</v>
+      <c r="B13" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" ht="29" spans="1:7">
+      <c r="F13" s="46"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" ht="30" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" ht="56" customHeight="1" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" ht="29" spans="1:7">
+    <row r="18" ht="45" spans="1:7">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+        <v>153</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" ht="73" customHeight="1" spans="1:7">
+    <row r="20" ht="75" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:7">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:7">
       <c r="A22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:7">
       <c r="A23" s="10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" ht="26" customHeight="1" spans="1:7">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:7">
       <c r="A25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G25" s="10"/>
     </row>
     <row r="26" ht="26" customHeight="1" spans="1:7">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" ht="26" customHeight="1" spans="1:7">
       <c r="A27" s="10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" ht="26" customHeight="1" spans="1:7">
       <c r="A28" s="10" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" ht="26" customHeight="1" spans="1:7">
       <c r="A29" s="10" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="1:7">
       <c r="A30" s="10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:7">
       <c r="A31" s="10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:7">
       <c r="A32" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:7">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:7">
       <c r="A34" s="10" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" ht="25" customHeight="1" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:7">
       <c r="A36" s="10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" ht="25" customHeight="1" spans="1:7">
       <c r="A37" s="10" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" ht="25" customHeight="1" spans="1:7">
       <c r="A38" s="10" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" ht="87" spans="1:7">
+    <row r="39" ht="90" spans="1:7">
       <c r="A39" s="10" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" customFormat="1" spans="1:7">
+    <row r="40" customFormat="1" ht="30" spans="1:7">
       <c r="A40" s="10" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="42"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:7">
+      <c r="D40" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" customFormat="1" ht="30" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="D41" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="42"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:7">
+      <c r="D41" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="10" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="D42" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" customFormat="1" ht="29" spans="1:7">
+      <c r="D42" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" customFormat="1" ht="45" spans="1:7">
       <c r="A43" s="10" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="42"/>
+      <c r="D43" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" s="32" customFormat="1" spans="1:7">
       <c r="A44" s="27" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
+        <v>127</v>
+      </c>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="71"/>
-    </row>
-    <row r="45" s="31" customFormat="1" ht="29" spans="1:4">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" s="32" customFormat="1" spans="1:4">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59" t="s">
-        <v>104</v>
+      <c r="G44" s="90"/>
+    </row>
+    <row r="45" s="31" customFormat="1" ht="30" spans="1:4">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" s="32" customFormat="1" ht="30" spans="1:4">
+      <c r="A46" s="63"/>
+      <c r="B46" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C46" s="31"/>
-      <c r="D46" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" s="32" customFormat="1" spans="1:4">
+      <c r="D46" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" s="32" customFormat="1" ht="30" spans="1:4">
       <c r="A47" s="31"/>
-      <c r="B47" s="59" t="s">
-        <v>106</v>
+      <c r="B47" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C47" s="31"/>
-      <c r="D47" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" s="32" customFormat="1" spans="1:4">
+      <c r="D47" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" s="32" customFormat="1" ht="30" spans="1:4">
       <c r="A48" s="31"/>
-      <c r="B48" s="59" t="s">
-        <v>108</v>
+      <c r="B48" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="C48" s="31"/>
-      <c r="D48" s="57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" s="32" customFormat="1" ht="29" spans="2:2">
-      <c r="B49" s="72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" s="32" customFormat="1" spans="2:2">
-      <c r="B50" s="73"/>
-    </row>
-    <row r="51" s="32" customFormat="1"/>
-    <row r="52" s="32" customFormat="1"/>
-    <row r="53" s="32" customFormat="1"/>
-    <row r="54" s="32" customFormat="1"/>
-    <row r="55" s="32" customFormat="1"/>
-    <row r="56" s="32" customFormat="1"/>
-    <row r="57" s="32" customFormat="1"/>
-    <row r="58" s="32" customFormat="1"/>
-    <row r="59" s="32" customFormat="1"/>
-    <row r="60" s="32" customFormat="1"/>
-    <row r="61" s="32" customFormat="1"/>
-    <row r="62" s="32" customFormat="1"/>
-    <row r="63" s="32" customFormat="1"/>
-    <row r="64" s="32" customFormat="1"/>
-    <row r="65" s="32" customFormat="1"/>
-    <row r="66" s="32" customFormat="1"/>
-    <row r="67" s="32" customFormat="1"/>
-    <row r="68" s="32" customFormat="1"/>
-    <row r="69" s="32" customFormat="1"/>
-    <row r="70" s="32" customFormat="1"/>
-    <row r="71" s="32" customFormat="1"/>
-    <row r="72" s="32" customFormat="1"/>
-    <row r="73" s="32" customFormat="1"/>
-    <row r="74" s="32" customFormat="1"/>
-    <row r="75" s="32" customFormat="1"/>
-    <row r="76" s="32" customFormat="1"/>
+      <c r="D48" s="62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" s="32" customFormat="1" ht="30" spans="2:4">
+      <c r="B49" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="91"/>
+    </row>
+    <row r="50" s="32" customFormat="1" spans="2:4">
+      <c r="B50" s="92"/>
+      <c r="D50" s="91"/>
+    </row>
+    <row r="51" s="32" customFormat="1" spans="4:4">
+      <c r="D51" s="91"/>
+    </row>
+    <row r="52" s="32" customFormat="1" spans="4:4">
+      <c r="D52" s="91"/>
+    </row>
+    <row r="53" s="32" customFormat="1" spans="4:4">
+      <c r="D53" s="91"/>
+    </row>
+    <row r="54" s="32" customFormat="1" spans="4:4">
+      <c r="D54" s="91"/>
+    </row>
+    <row r="55" s="32" customFormat="1" spans="4:4">
+      <c r="D55" s="91"/>
+    </row>
+    <row r="56" s="32" customFormat="1" spans="4:4">
+      <c r="D56" s="91"/>
+    </row>
+    <row r="57" s="32" customFormat="1" spans="4:4">
+      <c r="D57" s="91"/>
+    </row>
+    <row r="58" s="32" customFormat="1" spans="4:4">
+      <c r="D58" s="91"/>
+    </row>
+    <row r="59" s="32" customFormat="1" spans="4:4">
+      <c r="D59" s="91"/>
+    </row>
+    <row r="60" s="32" customFormat="1" spans="4:4">
+      <c r="D60" s="91"/>
+    </row>
+    <row r="61" s="32" customFormat="1" spans="4:4">
+      <c r="D61" s="91"/>
+    </row>
+    <row r="62" s="32" customFormat="1" spans="4:4">
+      <c r="D62" s="91"/>
+    </row>
+    <row r="63" s="32" customFormat="1" spans="4:4">
+      <c r="D63" s="91"/>
+    </row>
+    <row r="64" s="32" customFormat="1" spans="4:4">
+      <c r="D64" s="91"/>
+    </row>
+    <row r="65" s="32" customFormat="1" spans="4:4">
+      <c r="D65" s="91"/>
+    </row>
+    <row r="66" s="32" customFormat="1" spans="4:4">
+      <c r="D66" s="91"/>
+    </row>
+    <row r="67" s="32" customFormat="1" spans="4:4">
+      <c r="D67" s="91"/>
+    </row>
+    <row r="68" s="32" customFormat="1" spans="4:4">
+      <c r="D68" s="91"/>
+    </row>
+    <row r="69" s="32" customFormat="1" spans="4:4">
+      <c r="D69" s="91"/>
+    </row>
+    <row r="70" s="32" customFormat="1" spans="4:4">
+      <c r="D70" s="91"/>
+    </row>
+    <row r="71" s="32" customFormat="1" spans="4:4">
+      <c r="D71" s="91"/>
+    </row>
+    <row r="72" s="32" customFormat="1" spans="4:4">
+      <c r="D72" s="91"/>
+    </row>
+    <row r="73" s="32" customFormat="1" spans="4:4">
+      <c r="D73" s="91"/>
+    </row>
+    <row r="74" s="32" customFormat="1" spans="4:4">
+      <c r="D74" s="91"/>
+    </row>
+    <row r="75" s="32" customFormat="1" spans="4:4">
+      <c r="D75" s="91"/>
+    </row>
+    <row r="76" s="32" customFormat="1" spans="4:4">
+      <c r="D76" s="91"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
@@ -4422,18 +5016,19 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="48.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="84.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="50.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="31.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="8" max="8" width="17.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4441,18 +5036,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="C1" s="34"/>
       <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="E1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -4461,7 +5056,7 @@
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
@@ -4492,18 +5087,18 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4513,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4522,10 +5117,10 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="130.5" spans="1:8">
+    <row r="7" ht="60" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4545,10 +5140,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4579,231 +5174,267 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="39" t="s">
         <v>32</v>
       </c>
+      <c r="F12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" s="8" customFormat="1" ht="29" spans="1:8">
+    <row r="13" s="8" customFormat="1" ht="30" spans="1:8">
       <c r="A13" s="21"/>
-      <c r="B13" s="40" t="s">
-        <v>149</v>
+      <c r="B13" s="44" t="s">
+        <v>203</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" customFormat="1" ht="43.5" spans="1:8">
+    <row r="14" customFormat="1" ht="45" spans="1:8">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+        <v>205</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="49"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="E15" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="49"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" ht="29" spans="1:8">
+    <row r="16" ht="30" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+        <v>208</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="49"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" ht="72" customHeight="1" spans="1:8">
       <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>154</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>210</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" ht="87" spans="1:8">
+    <row r="18" ht="90" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+        <v>214</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" customFormat="1" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+        <v>217</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:4">
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:6">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="30" spans="1:8">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" customFormat="1" ht="43.5" spans="1:8">
+      <c r="D21" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="55"/>
+    </row>
+    <row r="22" customFormat="1" ht="45" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="50"/>
+        <v>224</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" s="31" customFormat="1" ht="29" spans="1:4">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>103</v>
+      <c r="A23" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="55"/>
+    </row>
+    <row r="24" s="31" customFormat="1" ht="30" spans="1:4">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="25" s="32" customFormat="1" spans="1:4">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59" t="s">
-        <v>104</v>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C25" s="31"/>
-      <c r="D25" s="57" t="s">
-        <v>105</v>
+      <c r="D25" s="86" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" s="32" customFormat="1" spans="1:4">
       <c r="A26" s="31"/>
-      <c r="B26" s="59" t="s">
-        <v>106</v>
+      <c r="B26" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="57" t="s">
-        <v>107</v>
+      <c r="D26" s="86" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" s="32" customFormat="1" spans="1:4">
       <c r="A27" s="31"/>
-      <c r="B27" s="59" t="s">
-        <v>108</v>
+      <c r="B27" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="C27" s="31"/>
-      <c r="D27" s="57" t="s">
-        <v>109</v>
+      <c r="D27" s="86" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4823,17 +5454,18 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="22.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="91.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="44.5714285714286" style="65" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="8" max="8" width="22.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4841,18 +5473,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="E1" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
@@ -4861,8 +5493,8 @@
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="66" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="10"/>
@@ -4874,7 +5506,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -4884,7 +5516,7 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -4892,18 +5524,18 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -4913,24 +5545,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="130.5" spans="1:8">
+    <row r="7" ht="60" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4939,7 +5571,7 @@
     <row r="8" spans="2:8">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -4947,13 +5579,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -4963,7 +5595,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -4973,7 +5605,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -4981,457 +5613,469 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="39" t="s">
         <v>32</v>
       </c>
+      <c r="F12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" s="8" customFormat="1" ht="29" spans="1:8">
+    <row r="13" s="8" customFormat="1" ht="30" spans="1:8">
       <c r="A13" s="21"/>
-      <c r="B13" s="40" t="s">
-        <v>168</v>
+      <c r="B13" s="44" t="s">
+        <v>230</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="41"/>
+      <c r="F13" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="46"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" customFormat="1" ht="29" spans="1:8">
+    <row r="14" customFormat="1" ht="30" spans="1:8">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="44"/>
+      <c r="D14" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="49"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="44"/>
+      <c r="E15" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="49"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="44"/>
+        <v>235</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="49"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" ht="79" customHeight="1" spans="1:8">
       <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>174</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>237</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="44"/>
+      <c r="D17" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="49"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="44"/>
+      <c r="D18" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="49"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="44"/>
+      <c r="E19" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="49"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+        <v>243</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="49"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+        <v>156</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="49"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="44"/>
+        <v>92</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="49"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" ht="60" spans="1:8">
       <c r="A23" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="10"/>
+        <v>251</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="73" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="47" t="s">
-        <v>80</v>
+      <c r="D24" s="54" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="44"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="47" t="s">
-        <v>83</v>
+        <v>255</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="54" t="s">
+        <v>103</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="44"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="42" t="s">
-        <v>63</v>
+      <c r="A26" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:6">
+      <c r="A27" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:8">
+      <c r="A28" s="47"/>
+      <c r="B28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="55"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:8">
+      <c r="A29" s="47"/>
+      <c r="B29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="55"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:8">
+      <c r="A30" s="47"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:8">
+      <c r="A31" s="47"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="55"/>
+    </row>
+    <row r="33" ht="30" spans="1:8">
+      <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="42"/>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:6">
-      <c r="A27" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:8">
-      <c r="A28" s="42"/>
-      <c r="B28" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:8">
-      <c r="A29" s="42"/>
-      <c r="B29" s="11" t="s">
+      <c r="B33" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="63" spans="1:8">
+      <c r="A34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="30" spans="1:8">
+      <c r="A35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:8">
-      <c r="A30" s="42"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:8">
-      <c r="A31" s="42"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="50"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="50"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="17" spans="1:8">
-      <c r="A34" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="B35" s="11" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+        <v>264</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="27" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="54" t="s">
-        <v>29</v>
+      <c r="D36" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="16"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" s="31" customFormat="1" ht="29" spans="1:4">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" s="32" customFormat="1" spans="1:4">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59" t="s">
-        <v>104</v>
+    <row r="37" s="31" customFormat="1" ht="60" spans="1:4">
+      <c r="A37" s="60"/>
+      <c r="B37" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" s="32" customFormat="1" ht="45" spans="1:4">
+      <c r="A38" s="63"/>
+      <c r="B38" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C38" s="31"/>
-      <c r="D38" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" s="32" customFormat="1" spans="1:4">
+      <c r="D38" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" s="32" customFormat="1" ht="45" spans="1:4">
       <c r="A39" s="31"/>
-      <c r="B39" s="59" t="s">
-        <v>106</v>
+      <c r="B39" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C39" s="31"/>
-      <c r="D39" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" s="32" customFormat="1" spans="1:4">
+      <c r="D39" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" s="32" customFormat="1" ht="45" spans="1:4">
       <c r="A40" s="31"/>
-      <c r="B40" s="59" t="s">
-        <v>108</v>
+      <c r="B40" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="C40" s="31"/>
-      <c r="D40" s="57" t="s">
-        <v>109</v>
+      <c r="D40" s="62" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5450,15 +6094,17 @@
   <sheetPr/>
   <dimension ref="A9:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="101.636363636364" customWidth="1"/>
-    <col min="4" max="4" width="138.636363636364" customWidth="1"/>
+    <col min="2" max="2" width="101.638095238095" customWidth="1"/>
+    <col min="4" max="4" width="67.4285714285714" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="1:8">
@@ -5466,18 +6112,18 @@
         <v>11</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
@@ -5486,8 +6132,8 @@
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="10"/>
@@ -5499,7 +6145,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -5509,7 +6155,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -5517,18 +6163,18 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5538,24 +6184,24 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" ht="130.5" spans="1:8">
+    <row r="15" ht="60" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -5564,7 +6210,7 @@
     <row r="16" spans="2:8">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5572,13 +6218,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -5588,7 +6234,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -5598,7 +6244,7 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -5606,339 +6252,361 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="39" t="s">
         <v>32</v>
       </c>
+      <c r="F20" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" s="8" customFormat="1" ht="29" spans="1:8">
+    <row r="21" s="8" customFormat="1" ht="30" spans="1:8">
       <c r="A21" s="21"/>
-      <c r="B21" s="40" t="s">
-        <v>196</v>
+      <c r="B21" s="44" t="s">
+        <v>268</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="22"/>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="D22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="49"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="49"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="44"/>
+        <v>274</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="49"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" ht="112" customHeight="1" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>202</v>
+        <v>48</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>276</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="44"/>
+      <c r="D25" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="49"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:8">
       <c r="A26" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="44"/>
+      <c r="D26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="49"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" ht="30" spans="1:8">
       <c r="A27" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" ht="30" spans="1:8">
       <c r="A28" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+        <v>243</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+        <v>156</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+        <v>92</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="D32" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="47"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
+        <v>255</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="42" t="s">
-        <v>63</v>
+      <c r="A34" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:5">
+      <c r="A35" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:8">
+      <c r="A36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="42"/>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:5">
-      <c r="A35" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:8">
-      <c r="A36" s="42" t="s">
-        <v>69</v>
-      </c>
       <c r="B36" s="10" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="22"/>
+      <c r="D36" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="47"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="50"/>
+      <c r="H36" s="55"/>
     </row>
     <row r="37" customFormat="1" spans="1:8">
-      <c r="A37" s="42" t="s">
-        <v>72</v>
+      <c r="A37" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="22"/>
+      <c r="D37" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="47"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="50"/>
+      <c r="H37" s="55"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="42" t="s">
-        <v>75</v>
+      <c r="A38" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52" t="s">
-        <v>185</v>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="50"/>
-    </row>
-    <row r="39" ht="29" spans="1:8">
-      <c r="A39" s="42" t="s">
-        <v>78</v>
+      <c r="H38" s="55"/>
+    </row>
+    <row r="39" ht="30" spans="1:8">
+      <c r="A39" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="47" t="s">
-        <v>187</v>
+      <c r="D39" s="54" t="s">
+        <v>260</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" ht="17" spans="1:8">
-      <c r="A40" s="42" t="s">
-        <v>81</v>
+    <row r="40" ht="31.5" spans="1:8">
+      <c r="A40" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="53" t="s">
-        <v>189</v>
+      <c r="D40" s="58" t="s">
+        <v>262</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5946,15 +6614,15 @@
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="42" t="s">
-        <v>84</v>
+      <c r="A41" s="47" t="s">
+        <v>105</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5963,57 +6631,78 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="27" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="54" t="s">
-        <v>29</v>
+      <c r="D42" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" s="31" customFormat="1" ht="29" spans="1:4">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" s="32" customFormat="1" spans="1:4">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59" t="s">
-        <v>104</v>
+    <row r="43" s="31" customFormat="1" ht="30" spans="1:5">
+      <c r="A43" s="60"/>
+      <c r="B43" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" s="32" customFormat="1" ht="30" spans="1:6">
+      <c r="A44" s="63"/>
+      <c r="B44" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="C44" s="31"/>
-      <c r="D44" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" s="32" customFormat="1" spans="1:4">
+      <c r="D44" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" s="32" customFormat="1" ht="30" spans="1:6">
       <c r="A45" s="31"/>
-      <c r="B45" s="59" t="s">
-        <v>106</v>
+      <c r="B45" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C45" s="31"/>
-      <c r="D45" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" s="32" customFormat="1" spans="1:4">
+      <c r="D45" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" s="32" customFormat="1" ht="30" spans="1:6">
       <c r="A46" s="31"/>
-      <c r="B46" s="59" t="s">
-        <v>108</v>
+      <c r="B46" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="C46" s="31"/>
-      <c r="D46" s="57" t="s">
-        <v>109</v>
+      <c r="D46" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6035,14 +6724,14 @@
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="75.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="36.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
+    <col min="4" max="4" width="75.2761904761905" customWidth="1"/>
+    <col min="6" max="6" width="36.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="15.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6050,14 +6739,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6087,18 +6776,18 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -6108,12 +6797,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="C5" s="10"/>
       <c r="E5" s="16"/>
       <c r="F5" s="10" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -6139,10 +6828,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -6183,16 +6872,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -6201,7 +6890,7 @@
     <row r="13" s="8" customFormat="1" spans="1:7">
       <c r="A13" s="19"/>
       <c r="B13" s="20" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="19"/>
@@ -6211,14 +6900,14 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="24" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -6226,14 +6915,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="24" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6241,14 +6930,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6256,7 +6945,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="21"/>
@@ -6268,7 +6957,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="19"/>
@@ -6278,14 +6967,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="24" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6293,14 +6982,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="24" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -6308,14 +6997,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="16" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6323,14 +7012,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -6339,7 +7028,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="16"/>
       <c r="B23" s="20" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="16"/>
@@ -6347,16 +7036,16 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" ht="72.5" spans="1:7">
+    <row r="24" ht="75" spans="1:7">
       <c r="A24" s="16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="16" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -6365,7 +7054,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="16"/>
@@ -6373,16 +7062,16 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" ht="58" spans="1:7">
+    <row r="26" ht="60" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="26" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -6390,14 +7079,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="16" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -6405,14 +7094,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="16" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -6420,10 +7109,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="16"/>
@@ -6433,10 +7122,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="16"/>
@@ -6447,7 +7136,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="22"/>
       <c r="B31" s="27" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="16"/>
@@ -6455,46 +7144,46 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" ht="116" spans="1:7">
+    <row r="32" ht="120" spans="1:7">
       <c r="A32" s="22" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="26" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" ht="29" spans="1:7">
+    <row r="33" ht="30" spans="1:7">
       <c r="A33" s="10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="26" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" ht="29" spans="1:7">
+    <row r="34" ht="30" spans="1:7">
       <c r="A34" s="10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="26" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -6502,29 +7191,29 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="16" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" ht="43.5" spans="1:7">
+    <row r="36" ht="45" spans="1:7">
       <c r="A36" s="10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="16" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -6532,14 +7221,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -6547,14 +7236,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="16" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6562,14 +7251,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="16" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6577,29 +7266,29 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="16" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" ht="72.5" spans="1:7">
+    <row r="41" ht="75" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="16" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6607,14 +7296,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="16" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6622,14 +7311,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="10" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="16" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6637,14 +7326,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="10" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="16" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6652,14 +7341,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="10" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="16" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6667,14 +7356,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="10" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="16" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6682,10 +7371,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="16"/>
@@ -6695,25 +7384,25 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="16" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" ht="29" spans="1:7">
+    <row r="49" ht="30" spans="1:7">
       <c r="A49" s="10" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="16"/>
@@ -6723,14 +7412,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="16" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6738,10 +7427,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="10" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="16"/>
@@ -6751,10 +7440,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="10" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="16"/>
@@ -6764,10 +7453,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="10" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="16"/>
@@ -6777,10 +7466,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="10" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="16"/>
@@ -6800,7 +7489,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="B56" s="27" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="16"/>
@@ -6810,14 +7499,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="16" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -6835,7 +7524,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="B59" s="27" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="16"/>
@@ -6845,14 +7534,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="10" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="16" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -6860,14 +7549,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="10" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="16" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -6875,14 +7564,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="10" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="16" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -6890,31 +7579,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="10" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="16" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="10" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="16" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -6922,29 +7611,29 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="10" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="16" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" ht="43.5" spans="1:7">
+    <row r="66" ht="45" spans="1:7">
       <c r="A66" s="10" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="16" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -6952,29 +7641,29 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="10" t="s">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="16" t="s">
-        <v>315</v>
+        <v>392</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" ht="159.5" spans="1:7">
+    <row r="68" ht="165" spans="1:7">
       <c r="A68" s="10" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="26" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -6982,14 +7671,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="10" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="16" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -6997,14 +7686,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="16" t="s">
-        <v>324</v>
+        <v>401</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -7012,14 +7701,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="10" t="s">
-        <v>325</v>
+        <v>402</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>326</v>
+        <v>403</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="16" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -7027,14 +7716,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="10" t="s">
-        <v>328</v>
+        <v>405</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="16" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="16"/>
@@ -7042,14 +7731,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="10" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="16" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="16"/>
@@ -7057,14 +7746,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="16" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="16"/>
@@ -7072,14 +7761,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="10" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="16" t="s">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="16"/>
@@ -7087,14 +7776,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="10" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>341</v>
+        <v>418</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="16" t="s">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
@@ -7102,14 +7791,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="10" t="s">
-        <v>343</v>
+        <v>420</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>344</v>
+        <v>421</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="16" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -7118,7 +7807,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="10"/>
       <c r="B78" s="29" t="s">
-        <v>346</v>
+        <v>423</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -7128,14 +7817,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="10" t="s">
-        <v>347</v>
+        <v>424</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>348</v>
+        <v>425</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="10"/>
@@ -7143,14 +7832,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="10" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="10"/>
@@ -7158,14 +7847,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="10" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -7188,7 +7877,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7204,90 +7893,90 @@
       <selection activeCell="C9" sqref="C9:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="25.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="25.5428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" ht="16" spans="3:3">
+    <row r="9" spans="3:3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" ht="16" spans="3:3">
+    <row r="10" spans="3:3">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" ht="16" spans="3:3">
+    <row r="11" spans="3:3">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" ht="16" spans="3:3">
+    <row r="12" spans="3:3">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" ht="16" spans="3:3">
+    <row r="13" spans="3:3">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" ht="16" spans="3:3">
+    <row r="14" spans="3:3">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" ht="16" spans="3:3">
+    <row r="15" spans="3:3">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" ht="16" spans="3:3">
+    <row r="16" spans="3:3">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" ht="16" spans="3:3">
+    <row r="17" spans="3:3">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" ht="16" spans="3:3">
+    <row r="18" spans="3:3">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" ht="16" spans="3:3">
+    <row r="19" spans="3:3">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" ht="16" spans="3:3">
+    <row r="20" spans="3:3">
       <c r="C20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:3">
+    <row r="21" spans="3:3">
       <c r="C21" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" ht="16" spans="3:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" ht="16" spans="3:3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24" ht="16" spans="3:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" ht="16" spans="3:3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16" spans="3:3">
+    <row r="26" spans="3:3">
       <c r="C26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16" spans="3:3">
+    <row r="27" spans="3:3">
       <c r="C27" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="28" ht="16" spans="3:3">
+    <row r="28" spans="3:3">
       <c r="C28" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="29" ht="16" spans="3:3">
+    <row r="29" spans="3:3">
       <c r="C29" s="7">
         <v>0</v>
       </c>
